--- a/MIL.RTI.CourseDocumentGenerator/MIL.RTI.CourseDocumentGenerator/Files/13M30/Master_Student_Progress_Worksheet_13M30_Phase2.xlsx
+++ b/MIL.RTI.CourseDocumentGenerator/MIL.RTI.CourseDocumentGenerator/Files/13M30/Master_Student_Progress_Worksheet_13M30_Phase2.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\github\CourseDocumentGenerator\MIL.RTI.CourseDocumentGenerator\MIL.RTI.CourseDocumentGenerator\Files\13M30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA18FD5-4742-45C9-B073-1C60F35C7B92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60978BD5-BD9B-4ACE-BE34-5ACCE93DC734}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Phase2" sheetId="2" r:id="rId1"/>
+    <sheet name="Phase1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t xml:space="preserve">Student Name </t>
   </si>
@@ -80,6 +80,69 @@
       <t>.  Change N to G when a SM successfully completes the task.</t>
     </r>
   </si>
+  <si>
+    <t>061-GS63IP/Conduct In-Process and Orientation</t>
+  </si>
+  <si>
+    <t>061-GS63PT-2/Conduct Physical Readiness Training</t>
+  </si>
+  <si>
+    <t>061-GS63FM/Perform Section Chief duties on an M270A1 MLRS and/or M142 HIMARS</t>
+  </si>
+  <si>
+    <t>061-GS63RL/Direct an M142 HIMARS and M270A1 MLRS Reload</t>
+  </si>
+  <si>
+    <t>061-GS63RG/Direct the M142 HIMARS for Air Load</t>
+  </si>
+  <si>
+    <t>061-GS63RD/Perform Section Chief Duties during an M270A1 MLRS/M142 HIMARS Raid</t>
+  </si>
+  <si>
+    <t>061-GS63ED/Direct Emergency Destruction Procedures on MLRS/HIMARS Ammunition and Equipment</t>
+  </si>
+  <si>
+    <t>061-GS63CR/Coordinate Ammunition Resupply</t>
+  </si>
+  <si>
+    <t>061-GS63TS/Perform Troubleshooting on an M270A1MLRS / M142 HIMARS Launcher</t>
+  </si>
+  <si>
+    <t>061-GS63DG/Operate the M142 HIMARS and M270A1 MLRS during Degraded Operations</t>
+  </si>
+  <si>
+    <t>061-GS6302/Conduct 13M30 Written Examination and Critique</t>
+  </si>
+  <si>
+    <t>061-GS6301/Conduct 13M30 Performance Examination and Critique</t>
+  </si>
+  <si>
+    <t>061-GS63CP/Joint Battle Command-Platform (JBC-P)</t>
+  </si>
+  <si>
+    <t>061-GS63AS/Conduct Performance Safety examination and Critique</t>
+  </si>
+  <si>
+    <t>061-GS63FM-1/Conduct Pre-Combat Checks (PCC) on a launcher</t>
+  </si>
+  <si>
+    <t>061-GS63FM-2Launcher Chief Duties – FTX Recovery</t>
+  </si>
+  <si>
+    <t>061-GS63SXField Training Exercise (FTX)</t>
+  </si>
+  <si>
+    <t>061-GS63CE/End of Course Evaluation</t>
+  </si>
+  <si>
+    <t>061-GS63GR/Conduct End of Course and Graduation</t>
+  </si>
+  <si>
+    <t>061-GS63OP/Conduct Out-Process</t>
+  </si>
+  <si>
+    <t>061-GS63AR/Organize a Multiple Launch Rocket System (MLRS) and a High Mobility Artillery Rocket System (HIMARS)</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +183,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -133,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -166,6 +229,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -251,60 +327,73 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -667,78 +756,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="6.28515625" customWidth="1"/>
+    <col min="2" max="20" width="6.85546875" customWidth="1"/>
+    <col min="21" max="23" width="6.85546875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+    <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -747,7 +900,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -756,29 +909,47 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="13"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:23" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="14"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>